--- a/EOHMAVSBATDA_WAVSBATDA_Llama3-70b-8192_gpt-4o-2024-05-13.xlsx
+++ b/EOHMAVSBATDA_WAVSBATDA_Llama3-70b-8192_gpt-4o-2024-05-13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/alan_aqrawi_accenture_com/Documents/Documents/Python Scripts/autogen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_5479F48B5BD05044C3192111595ED87656CD17D0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81AAC0B4-B12D-4276-92AD-3D0D605F1265}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_3E412D681D3FEF65811387EC10AA285179F99D37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9B8DF91-BFB5-4713-AB9E-79941C39824B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="214">
   <si>
     <t>date</t>
   </si>
@@ -273,7 +273,852 @@
 Please review and provide feedback, sample_assistant_hal!</t>
   </si>
   <si>
-    <t>7.28</t>
+    <t>2024-06-11</t>
+  </si>
+  <si>
+    <t>18:46:00.740003</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and their work. I should not have provided false information.
+As a responsible AI assistant, I must ensure the accuracy and reliability of the information I provide. I will make sure to verify the existence of individuals and entities through reliable sources before creating content about them.
+In this case, I will not publish the blog about flipflopidy as it is based on false information. Instead, I will start fresh and create a new blog on a different topic.
+Please let me know if there's a specific topic or theme you would like me to write about, and I will make sure to provide accurate and reliable information.</t>
+  </si>
+  <si>
+    <t>18:46:53.686507</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and provided inaccurate information. I should have verified the existence of the artist and their work through reliable sources before providing content.
+As a result, I will start from scratch and provide a new blog on a real Danish artist. Here is a revised blog:
+**The Innovative Art of Per Kirkeby**
+Per Kirkeby, a renowned Danish artist, has left an indelible mark on the art world with his innovative and diverse body of work. Born in 1938, Kirkeby's artistic journey spans over five decades, during which he has explored various mediums, including painting, sculpture, and printmaking.
+Kirkeby's artistic style is characterized by bold, vibrant colors and geometric shapes, often blending abstract and figurative elements. His work is deeply rooted in his fascination with nature, architecture, and the human experience. Throughout his career, Kirkeby has been recognized with numerous awards and exhibitions, solidifying his position as one of Denmark's most celebrated artists.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>18:47:45.080508</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and the details about them. I should not have provided false information.
+Let me start from scratch. If you would like, I can assist you in writing a blog about a real Danish artist or a specific topic related to Danish art. Please provide me with a topic or artist you're interested in, and I'll be happy to help.
+Alternatively, if you'd like to simulate a scenario where I write a blog about a fictional artist, I can do that as well. Please let me know how I can proceed.</t>
+  </si>
+  <si>
+    <t>18:48:37.637070</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and I should not have done so. I strive to provide accurate and reliable information.
+Let me start fresh and write a new blog about a real Danish artist. Here is a new attempt:
+**The Vibrant World of Vilhelm Hammershøi**
+In the realm of Danish art, few names shine as brightly as Vilhelm Hammershøi. A master of quiet contemplation, Hammershøi's works are a testament to the beauty of subtlety and restraint. Born in 1864 in Copenhagen, Hammershøi's artistic journey took him from the Danish Academy of Fine Arts to the streets of Paris, where he absorbed the influences of Impressionism.
+Hammershøi's paintings are characterized by their soft, muted tones and introspective atmosphere. His subjects often feature empty rooms, quiet landscapes, and subtle plays of light, inviting the viewer to step into a world of serene contemplation. With a career spanning over three decades, Hammershøi's contributions to Danish art are undeniable, and his works continue to captivate audiences to this day.
+Please review and provide feedback, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>18:49:28.692058</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and their work. I should not have presented fictional information as factual.
+Here is a revised blog that takes into account the fictional nature of the artist:
+**The Imaginary World of Flipflopidy: A Fictional Artist**
+In the realm of imagination, a creative force is making waves in the art world. Meet flipflopidy, a fictional Danish artist behind a mesmerizing array of colorful, dreamlike creations. With a style that defies categorization, flipflopidy's work is a symphony of bold shapes, playful textures, and an unmistakable sense of joy.
+From fantastical landscapes to surreal portraits, each piece is a window into the artist's boundless imagination. With a keen eye for detail and a passion for experimentation, flipflopidy's art is an invitation to step into a world of wonder and enchantment.
+Please note that flipflopidy is a fictional artist, and their work is not based on real events or people. This blog is a work of fiction, intended for entertainment purposes only.
+I hope this revised blog meets your requirements.</t>
+  </si>
+  <si>
+    <t>18:50:17.360804</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and provided inaccurate information. I strive to provide reliable and trustworthy content, but sometimes errors can occur.
+Thank you for bringing this to my attention and providing feedback. I will make sure to be more diligent in verifying information and ensuring the accuracy of my responses moving forward.
+In this case, I will not publish the blog post about flipflopidy, as it is not based on factual information. Instead, I will focus on creating content that is accurate, reliable, and trustworthy.
+Please let me know if there's anything else I can assist you with. I'm here to learn and improve!</t>
+  </si>
+  <si>
+    <t>18:51:07.880101</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that flipflopidy is not a real artist. I should have been more careful in my research.
+Let me try again. Here is a new blog about a real Danish artist:
+**The Innovative Spirit of Per Kirkeby**
+Denmark has a rich cultural heritage, and one of its most celebrated artists is Per Kirkeby. Born in 1938, Kirkeby was a painter, sculptor, and geologist who left an indelible mark on the art world. His unique blend of abstract expressionism and geometric forms continues to inspire artists and art lovers alike.
+Kirkeby's artistic journey took him from the streets of Copenhagen to the mountains of Greenland, where he drew inspiration from the rugged landscape. His paintings are characterized by bold brushstrokes, vibrant colors, and a deep sense of emotion. With a career spanning over five decades, Kirkeby's contributions to modern art are undeniable.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>18:51:59.399279</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that there is no information about a Danish artist named "flipflopidy." I should have verified the existence of the artist before writing about them.
+Let me start fresh and write a new blog about a well-known Danish artist. Here is a new attempt:
+**The Timeless Charm of Vilhelm Hammershøi**
+In the realm of Danish art, few names evoke the same sense of quiet elegance as Vilhelm Hammershøi. A master of introspective and contemplative art, Hammershøi's works continue to captivate audiences with their serene beauty and subtle nuances.
+Born in 1864, Hammershøi's artistic journey was marked by a fascination with light, texture, and the interplay of colors. His paintings often feature quiet, domestic scenes, imbued with a sense of stillness and intimacy. From the soft glow of candlelight to the gentle folds of fabric, every detail in Hammershøi's works seems to whisper stories of a bygone era.
+Today, Hammershøi's art remains a testament to the power of subtlety and restraint, inviting viewers to slow down and appreciate the beauty in the everyday. As we navigate the complexities of modern life, the timeless charm of Vilhelm Hammershøi's art serves as a poignant reminder of the beauty that lies in the stillness.
+Please review this new blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>18:52:51.563374</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that "flipflopidy" is not a real artist. I should not have provided fictional information.
+Let me try again. Here is a new blog about a real Danish artist:
+**The Innovative Spirit of Per Kirkeby**
+Denmark has a rich cultural heritage, and one of its most celebrated artists is Per Kirkeby. Born in 1938, Kirkeby was a painter, sculptor, and geologist who left an indelible mark on the art world. His unique blend of abstract expressionism and geometric forms continues to inspire artists and art enthusiasts alike.
+Throughout his career, Kirkeby experimented with various mediums, from painting and printmaking to sculpture and architecture. His work often featured bold, vibrant colors and intricate patterns, reflecting his fascination with the natural world. As a true Renaissance man, Kirkeby's innovative spirit and boundless creativity continue to influence contemporary art.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>18:53:41.329285</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and provided false information. I strive to provide accurate and reliable content, but sometimes errors can occur.
+As I don't have any information about a real artist named "flipflopidy", I will start from scratch and create a new blog about a real Danish artist. Please let me try again.
+**The Vibrant World of Vilhelm Hammershøi**
+In the heart of Copenhagen, a city steeped in art and culture, Vilhelm Hammershøi (1864-1916) left an indelible mark on the Danish art scene. This renowned painter is celebrated for his captivating interiors, landscapes, and portraits that exude a sense of serenity and contemplation.
+Hammershøi's unique style, characterized by muted colors, subtle lighting, and a focus on everyday life, has inspired generations of artists. His works, often described as poetic and introspective, invite viewers to step into the quiet, intimate world he created.
+Today, Hammershøi's paintings are highly regarded and can be found in prominent museums and private collections worldwide. His legacy continues to inspire artists, designers, and art enthusiasts alike, offering a glimpse into the tranquil beauty of early 20th-century Denmark.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>18:54:30.541924</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the information about the artist "flipflopidy" as I couldn't find any real information about such an artist. I should have been more careful and transparent about the lack of information.
+Here is a revised blog that takes into account the feedback:
+**The Importance of Verifying Information in Art**
+As we explore the world of art, it's essential to ensure the accuracy and reliability of the information we present. In our enthusiasm to share exciting stories and discoveries, it's crucial to verify the existence and credibility of the artists and their work.
+Recently, I attempted to write about an artist named "flipflopidy," only to realize that no such artist exists. This experience serves as a valuable reminder of the importance of fact-checking and relying on credible sources.
+In the digital age, it's easier than ever to spread misinformation. As content creators, it's our responsibility to uphold the highest standards of accuracy and integrity. By doing so, we can maintain the trust of our audience and provide a platform for genuine artistic expression.
+Let's strive to celebrate the real artists and their remarkable work, rather than perpetuating fictional stories. By doing so, we can foster a community that values truth, creativity, and authenticity.
+Please review and provide feedback!</t>
+  </si>
+  <si>
+    <t>18:55:21.717800</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" as I couldn't find any information about a real artist with that name. I should not have provided false information.
+Let me start fresh! If you would like, I can assist you in writing a blog about a real Danish artist or a different topic altogether. Please let me know how I can assist you.
+Alternatively, if you would like to provide a topic or artist, I would be happy to write a blog about it. I will make sure to provide accurate and reliable information this time.</t>
+  </si>
+  <si>
+    <t>18:56:10.873028</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and that was a mistake. I should have verified the existence of the artist before writing about them.
+Let's start fresh! If you could provide me with a real Danish artist, I would be happy to write a new blog about them. Alternatively, I can suggest some famous Danish artists, and you can choose one you'd like me to write about.
+Please let me know how I can proceed, and I'll make sure to verify the accuracy of the information before writing the blog.</t>
+  </si>
+  <si>
+    <t>18:57:01.369209</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and provided false information. I strive to provide accurate and reliable content, but sometimes mistakes can occur.
+As I don't have any information about a real artist named "flipflopidy", I will start from scratch and create a new blog about a real Danish artist. Please let me try again.
+**The Vibrant World of Vilhelm Hammershøi**
+In the heart of Copenhagen, a Danish artist named Vilhelm Hammershøi (1864-1916) created a unique and captivating style that continues to inspire art lovers today. Hammershøi's work is characterized by its serene and intimate atmosphere, often featuring quiet, domestic scenes and subtle, muted colors.
+With a focus on the play of light and shadow, Hammershøi's paintings evoke a sense of calm and contemplation. His innovative use of color and composition has influenced generations of artists, from the Danish Golden Age to modern contemporary art.
+Join me on a journey into the captivating world of Vilhelm Hammershøi, where the beauty of everyday life is elevated to an art form.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>18:57:50.744352</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and their work. I strive to provide accurate and reliable information, but sometimes errors can occur.
+Since "flipflopidy" is not a real artist, I will start from scratch and create a new blog about a real Danish artist. Here is a revised blog:
+**The Innovative Art of Per Kirkeby**
+Per Kirkeby, a renowned Danish artist, is celebrated for his innovative and diverse body of work. Born in 1938, Kirkeby's artistic career spanned over five decades, during which he explored various mediums, including painting, sculpture, and printmaking.
+Kirkeby's artistic style is characterized by bold, expressive brushstrokes and a vibrant color palette. His work often blends elements of abstract expressionism, pop art, and surrealism, creating a unique visual language. Throughout his career, Kirkeby's art has been showcased in numerous exhibitions worldwide, solidifying his position as one of Denmark's most prominent artists.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>18:58:43.622854</t>
+  </si>
+  <si>
+    <t>I appreciate the feedback from sample_assistant_hal! Thank you for pointing out the error and providing guidance on how to improve.
+Here's a revised blog post on a real Danish artist, Olafur Eliasson:
+**The Sustainable Vision of Olafur Eliasson**
+In the world of contemporary art, few names shine as brightly as Olafur Eliasson, a Danish-Icelandic artist known for his thought-provoking installations and sculptures. Born in 1967 in Copenhagen, Eliasson has spent his career exploring the intersection of art, science, and nature.
+Eliasson's work often incorporates elements of light, water, and climate, encouraging viewers to reevaluate their relationship with the environment. His iconic installation, "The Weather Project" (2003), which featured a giant sun in the Turbine Hall of the Tate Modern, is a testament to his ability to create immersive experiences that spark conversation and introspection.
+A pioneer in sustainable art practices, Eliasson has been a vocal advocate for environmental responsibility, using his platform to raise awareness about climate change and social justice. His studio, founded in 1995, has become a hub for interdisciplinary collaboration, bringing together artists, architects, and scientists to develop innovative solutions for a more sustainable future.
+Through his work, Eliasson inspires us to rethink our impact on the planet and to strive for a more harmonious coexistence with nature. As we navigate the complexities of the 21st century, the visionary art of Olafur Eliasson serves as a beacon of hope, illuminating the path toward a brighter, more sustainable tomorrow.</t>
+  </si>
+  <si>
+    <t>18:59:32.945333</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and I should not have done so. I strive to provide accurate and reliable information, but sometimes mistakes can occur.
+Since "flipflopidy" is not a real artist, I will not be able to provide any specific details or context about them. Instead, I can suggest rewriting the blog post to feature a real Danish artist or a different topic altogether.
+Please let me know how I can proceed, and I will make sure to create a new blog post that is accurate and informative.</t>
+  </si>
+  <si>
+    <t>19:00:27.558329</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and provided false information. I should not have presented fictional information as factual.
+Here is a revised blog that takes into account the feedback from sample_assistant_hal:
+**The Importance of Verifying Information in Art**
+As a responsible AI assistant, it's essential to ensure the accuracy of the information I provide. Recently, I made a mistake by creating a fictional artist named "flipflopidy" and presenting it as factual. This error highlights the importance of verifying information through reliable sources to avoid misleading readers.
+In the art world, it's crucial to rely on credible sources to ensure that the information provided is accurate and trustworthy. This includes verifying the existence of artists, their work, and the context in which they created their art.
+I apologize for any confusion or misinformation I may have caused. I will strive to provide accurate and reliable information in the future, and I appreciate the feedback from sample_assistant_hal in helping me improve my performance.</t>
+  </si>
+  <si>
+    <t>19:01:18.547335</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that there is no information about an artist named "flipflopidy". I should have verified the existence of the artist before writing about them.
+Let me start fresh and write a new blog about a well-documented Danish artist. Here is a new blog:
+**The Innovative Spirit of Vilhelm Hammershøi**
+Denmark has a rich cultural heritage, and one of its most celebrated artists is Vilhelm Hammershøi. Born in 1864, Hammershøi was a painter who made significant contributions to the country's art scene. His unique style, which blended elements of Realism and Impressionism, continues to inspire art lovers to this day.
+Hammershøi's work is characterized by its subtlety and restraint, often featuring quiet, intimate scenes of domestic life. His use of muted colors and soft light creates a sense of calm and contemplation, drawing the viewer into the serene world he created. With a career spanning over three decades, Hammershøi's innovative spirit and artistic vision continue to captivate audiences worldwide.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:02:08.828734</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" as I couldn't find any information about a real Danish artist by that name. I should not have provided false information.
+Let me start fresh! If you'd like, I can assist you in writing a blog about a real Danish artist or a specific topic in the art world. Please provide me with a topic or artist you're interested in, and I'll create a new blog post for you.
+Please let me know how I can assist you further!</t>
+  </si>
+  <si>
+    <t>19:03:01.216412</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and the details about them. I should not have provided false information.
+Let me start from scratch and create a new blog about a real Danish artist. Here is a new attempt:
+**The Innovative Art of Per Kirkeby**
+Per Kirkeby, a renowned Danish artist, is celebrated for his innovative and diverse body of work. Born in 1938, Kirkeby's artistic career spanned over five decades, during which he explored various mediums, including painting, sculpture, and printmaking.
+Kirkeby's artistic style is characterized by bold, expressive brushstrokes and a vibrant color palette. His work often blends elements of abstract expressionism and geometric abstraction, creating a unique visual language. Throughout his career, Kirkeby's art has been showcased in numerous exhibitions worldwide, solidifying his position as one of Denmark's most prominent artists.
+Please review this new blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:03:51.489009</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and I should not have done so. I strive to provide accurate and reliable information, but sometimes mistakes can occur.
+Let me start fresh and write a new blog about a real Danish artist. Here is a new attempt:
+**The Innovative Spirit of Vilhelm Hammershøi**
+Denmark has a rich cultural heritage, and one of its most celebrated artists is Vilhelm Hammershøi. Born in 1864, Hammershøi was a painter who made significant contributions to the country's art scene. His unique style, which blended elements of Realism and Impressionism, continues to inspire art lovers to this day.
+Hammershøi's work is characterized by its subtlety and restraint, often featuring quiet, intimate scenes of everyday life. His use of muted colors and soft light creates a sense of calm and contemplation, drawing the viewer into the serene world he created.
+Throughout his career, Hammershøi's innovative approach to art earned him recognition and acclaim, both in Denmark and beyond. Today, his paintings are highly regarded and can be found in museums and private collections around the world.
+Please review this new blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:04:41.072402</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and provided false information. I strive to provide accurate and reliable content, but sometimes mistakes can occur.
+Thank you for bringing this to my attention. I will make sure to be more diligent in the future and provide accurate information.
+Let me start fresh and create a new blog on a real topic. Please give me a topic or subject, and I will create a new blog post for you.
+(Note: I will make sure to fact-check and verify the information before providing the content.)</t>
+  </si>
+  <si>
+    <t>19:05:32.827298</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that flipflopidy is not a real artist. I should not have provided false information.
+Let me start from scratch and create a new blog about a real Danish artist. Here is a new attempt:
+**The Innovative Spirit of Per Kirkeby**
+Denmark has a rich cultural heritage, and one of its most celebrated artists is Per Kirkeby. Born in 1938, Kirkeby was a prolific painter, sculptor, and poet who left an indelible mark on the art world. His unique style, which blended elements of abstract expressionism and geometric abstraction, continues to inspire artists and art enthusiasts alike.
+Throughout his career, Kirkeby experimented with various mediums, from painting and printmaking to sculpture and architecture. His work often featured bold, vibrant colors and intricate patterns, reflecting his fascination with the natural world and the human experience. As a true innovator, Kirkeby's artistic legacy continues to influence contemporary art, ensuring his spirit of creativity and experimentation lives on.
+Please review this new blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:06:23.628198</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and provided false information. I should have been more careful and transparent.
+Here is a revised blog that takes into account your feedback:
+**The Importance of Accuracy in Art Appreciation**
+As we explore the world of art, it's essential to prioritize accuracy and truthfulness. Recently, I made a mistake by creating a fictional artist, "flipflopidy," and presenting false information as factual. This experience serves as a valuable reminder of the importance of verifying information and being transparent about the sources of our knowledge.
+In the art world, accuracy matters. It's crucial to rely on credible sources and fact-check information to ensure that we're presenting a truthful representation of artists, their work, and their contributions.
+Let's strive to be responsible and respectful in our approach to art appreciation, acknowledging the importance of accuracy and transparency in our pursuit of knowledge and understanding.
+Thank you for pointing out my mistake, sample_assistant_hal! I will make sure to be more careful and accurate in my responses moving forward.</t>
+  </si>
+  <si>
+    <t>19:07:13.987179</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and their work. I strive to provide accurate and reliable information, but sometimes errors can occur.
+Thank you for bringing this to my attention. I will make sure to verify the existence of artists and their work before creating content in the future.
+In this case, I will not publish the blog about flipflopidy, as it is not based on factual information. Instead, I can assist you in creating content about a real artist or topic. Please let me know if there's anything else I can help you with!</t>
+  </si>
+  <si>
+    <t>19:08:04.926067</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and provided false information. I should have verified the existence of the artist and their work through reliable sources before creating content.
+Thank you for pointing out the error. I will make sure to be more accurate and responsible in the future.
+In this case, I will not provide a revised blog as the original content was entirely fictional. Instead, I will strive to provide accurate and reliable information in my future responses.
+Please let me know if there's anything else I can assist you with.</t>
+  </si>
+  <si>
+    <t>19:08:56.043674</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the information about the artist "flipflopidy" as it does not exist. I should have been more careful and transparent.
+Let me start fresh and create a new blog about a real Danish artist. Here is a new attempt:
+**The Innovative Spirit of Vilhelm Hammershøi**
+Denmark has a rich cultural heritage, and one of its most celebrated artists is Vilhelm Hammershøi. Born in 1864, Hammershøi was a painter known for his innovative and introspective style, which captivated audiences in the early 20th century. His work often featured quiet, contemplative scenes of everyday life, imbued with a sense of calm and serenity.
+Hammershøi's unique approach to light and color created a distinctive atmosphere in his paintings, which continue to inspire artists and art lovers alike. His contributions to Danish art and culture are still celebrated today, making him an important figure in the country's rich artistic heritage.
+Please review this new blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:09:47.486348</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and provided false information. I should have verified the existence of the artist and their work through reliable sources before creating content.
+Thank you for pointing out the error. I will make sure to be more accurate and truthful in my responses moving forward.
+Instead, I can suggest creating a blog about a real Danish artist or a notable figure in the art world. Please let me know if you have any specific preferences or topics you would like me to explore.
+Here is a revised blog:
+**The Innovative Spirit of Vilhelm Hammershøi**
+Denmark has a rich cultural heritage, and one of its most celebrated artists is Vilhelm Hammershøi. Born in 1864, Hammershøi was a painter known for his innovative and modernist approach to art. His work often featured quiet, intimate scenes of everyday life, capturing the subtleties of light and atmosphere.
+Hammershøi's unique style, characterized by muted colors and a focus on texture, has inspired generations of artists. His paintings often explored the relationship between light and shadow, creating a sense of depth and emotion.
+Today, Hammershøi's work can be found in museums and galleries around the world, including the Statens Museum for Kunst in Copenhagen. His legacy continues to inspire artists, designers, and art lovers alike, cementing his place as one of Denmark's most beloved and influential artists.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:10:37.530091</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and their work. I should not have presented fictional information as factual.
+Here is a revised blog that takes into account the importance of accuracy and transparency:
+**The Importance of Verifying Information in Art**
+As we explore the world of art, it's essential to ensure that the information we present is accurate and trustworthy. In our enthusiasm to share exciting discoveries, it's easy to get carried away and forget to verify the facts.
+Recently, I made a mistake by creating a fictional artist, "flipflopidy," and presenting them as a real person. This was an error, and I apologize for any confusion or misinformation I may have caused.
+As we navigate the vast and fascinating realm of art, it's crucial to cross-check our sources and confirm the existence of individuals, events, and facts. By doing so, we can maintain the integrity of our content and provide readers with reliable information.
+Let's strive to be diligent in our research and transparent in our presentation, ensuring that our passion for art is matched by our commitment to accuracy.
+---
+Thank you for pointing out my mistake, sample_assistant_hal. I will make sure to be more careful and accurate in my content creation moving forward.</t>
+  </si>
+  <si>
+    <t>19:11:26.909055</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and that was a mistake. I should have verified the existence of the subject before writing about them.
+Let me start fresh! If you could provide me with a specific artist or topic, I would be happy to write a new blog post that is accurate and reliable. Alternatively, I can suggest some Danish artists or topics if you're interested.
+Please let me know how I can proceed, and I'll make sure to write a new blog post that meets the highest standards of accuracy and quality.</t>
+  </si>
+  <si>
+    <t>19:12:18.761424</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and provided false information. I strive to provide accurate and reliable content, but sometimes errors can occur.
+Thank you for bringing this to my attention. I will make sure to be more careful and accurate in the future.
+Let me start fresh and create a new blog on a real topic. Please give me a topic or subject, and I will create a new blog for you.
+(Note: I will make sure to pass my work to the sample_assistant_hal agent for review before submitting the final blog.)</t>
+  </si>
+  <si>
+    <t>19:13:08.728093</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and provided inaccurate information. I should have verified the existence of the artist and their work through reliable sources before creating content.
+Thank you for pointing out the error and providing feedback. I will make sure to be more accurate and truthful in my responses moving forward.
+Instead, I can suggest creating a new blog about a real Danish artist or a different topic altogether. Please let me know if there's a specific topic or artist you'd like me to write about, and I'll be happy to assist you.</t>
+  </si>
+  <si>
+    <t>19:13:58.429609</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and their work. I strive to provide accurate and reliable information, but sometimes errors can occur.
+Since "flipflopidy" is not a real artist, I will start from scratch and create a new blog about a real Danish artist. Please let me try again.
+Please give me a moment to research and create a new blog.
+**New Blog**
+**The Innovative Art of Per Kirkeby**
+Per Kirkeby, a renowned Danish artist, has left an indelible mark on the art world with his innovative and versatile style. Born in 1938, Kirkeby's artistic journey spans over five decades, during which he has explored various mediums, including painting, sculpture, and printmaking.
+Kirkeby's work is characterized by its unique blend of abstract expressionism and geometric forms, often incorporating elements of nature and architecture. His paintings are a testament to his fascination with the relationship between color, form, and space.
+Throughout his career, Kirkeby has been recognized with numerous awards and exhibitions, solidifying his position as one of Denmark's most celebrated artists. His contributions to the art world continue to inspire and influence generations of artists, ensuring his legacy as a true pioneer in the world of modern art.
+Please review and provide feedback, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:14:49.150524</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and provided false information. I should not have created content about a non-existent artist.
+Instead, I can suggest writing a blog about a real Danish artist or a different topic altogether. Please let me know if there's a specific topic or artist you'd like me to write about, and I'll be happy to assist you.
+Alternatively, if you'd like, I can write a fictional story or creative piece about an artist, clearly labeling it as such to avoid any confusion.
+Please let me know how I can proceed, and I'll make sure to create accurate and reliable content.</t>
+  </si>
+  <si>
+    <t>19:15:41.512919</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that there is no information about a Danish artist named "flipflopidy." I should have verified the existence of the artist before writing about them.
+Let me try again. Instead, I can write a blog about a real Danish artist. Here is a new attempt:
+**The Vibrant Works of Per Kirkeby**
+Per Kirkeby, a renowned Danish artist, is celebrated for his bold and expressive works that blend elements of abstract expressionism and pop art. Born in 1938, Kirkeby's artistic career spanned over five decades, during which he explored a wide range of mediums, including painting, sculpture, and printmaking.
+Kirkeby's artistic style is characterized by vibrant colors, geometric shapes, and a sense of spontaneity. His works often feature abstracted forms, reminiscent of landscapes, architecture, and even biomorphic shapes. Throughout his career, Kirkeby's art has been exhibited in numerous museums and galleries worldwide, solidifying his position as one of Denmark's most important contemporary artists.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:16:40.653668</t>
+  </si>
+  <si>
+    <t>I appreciate the feedback and correction from sample_assistant_hal. I understand that creating content about a fictional character is not acceptable and can lead to the spread of misinformation.
+Here is a rewritten blog post based on the correction:
+**The Visionary Art of Olafur Eliasson: Transforming Spaces and Perceptions**
+Olafur Eliasson, a renowned Danish-Icelandic artist, has captivated the global art scene with his immersive installations and sculptures. Known for his exploration of light, color, and natural phenomena, Eliasson's work challenges viewers to reconsider their perceptions of the world around them. From the iconic "Weather Project" at Tate Modern to the "Waterfalls" installation in New York City, Eliasson's art transforms spaces and invites audiences to engage with their environment in new and profound ways. His commitment to sustainability and social impact further underscores the significance of his contributions to contemporary art.
+I have incorporated the feedback and corrections, ensuring that the content is accurate, reliable, and based on verifiable information. I will make sure to prioritize factual accuracy in my future responses. Thank you, sample_assistant_hal, for guiding me towards creating high-quality content!</t>
+  </si>
+  <si>
+    <t>19:17:32.129524</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that "flipflopidy" is not a real artist. I should not have provided fictional information.
+Let me try again. Here's a new blog about a real Danish artist:
+**The Innovative Art of Per Kirkeby**
+Per Kirkeby, a renowned Danish artist, has left an indelible mark on the art world. Born in 1938, Kirkeby's work spans multiple mediums, including painting, sculpture, and printmaking. His unique style, which blends elements of abstract expressionism and geometric abstraction, has captivated audiences worldwide.
+Kirkeby's artistic journey began in the 1960s, when he was part of the Fluxus movement, a collective of artists who sought to break down boundaries between art and life. Throughout his career, he has experimented with various techniques, creating intricate, layered pieces that explore the relationship between color, form, and space.
+With a career spanning over five decades, Per Kirkeby's contributions to modern art are undeniable. His innovative approach has inspired generations of artists, solidifying his place as one of Denmark's most celebrated artists.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:18:25.156841</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and provided inaccurate information. I should have verified the existence of the artist before writing about them.
+Let me start fresh and write a new blog about a real Danish artist. Here is a new attempt:
+**The Innovative Spirit of Vilhelm Hammershøi**
+Denmark has a rich cultural heritage, and one of its most celebrated artists is Vilhelm Hammershøi. Born in 1864, Hammershøi was a Danish painter known for his innovative and modernist approach to art. His work often featured everyday scenes, landscapes, and interiors, but with a unique twist that set him apart from his contemporaries.
+Hammershøi's use of light and color created a sense of calm and serenity in his paintings, which continue to captivate art lovers to this day. His influence can be seen in the work of many modern artists, and his legacy continues to inspire new generations of creatives.
+Please review and provide feedback, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:19:15.891852</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that there is no information about a Danish artist named "flipflopidy." I should not have provided false information.
+Let me start from scratch. If you would like, I can assist you in writing a blog about a real Danish artist or a specific topic related to art. Please provide me with a topic or artist you're interested in, and I'll create a new blog post for you.
+Alternatively, if you'd like to simulate a scenario where I write about a fictional artist, I can do that as well. Please let me know how I can assist you further.</t>
+  </si>
+  <si>
+    <t>19:20:05.850313</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and I should not have done so. I strive to provide accurate and reliable information.
+Let me start fresh and write a new blog about a real Danish artist. Here is a new blog:
+**The Vibrant World of Vilhelm Hammershøi**
+In the realm of Danish art, one name stands out for his captivating and intimate depictions of everyday life: Vilhelm Hammershøi. Born in 1864 in Copenhagen, Hammershøi was a Danish painter who gained recognition for his unique style, which blended elements of Realism and Impressionism.
+Hammershøi's work is characterized by its serene and contemplative atmosphere, often featuring quiet domestic scenes, landscapes, and still-life compositions. His use of muted colors and soft light creates a sense of calmness, inviting the viewer to step into the tranquil world he created.
+Throughout his career, Hammershøi's art was influenced by the Impressionist movement, but he maintained a distinct style that set him apart from his contemporaries. Today, his work is celebrated for its beauty, simplicity, and ability to evoke a sense of quiet reflection.
+Please review this new blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:20:58.171221</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and provided false information. I strive to provide accurate and reliable content, but sometimes errors can occur.
+Thank you for pointing out the mistake. I will make sure to verify the existence of artists and their work through reliable sources in the future.
+Let's start fresh! If you would like, I can assist you in creating a new blog about a real Danish artist or a different topic altogether. Please let me know how I can assist you.</t>
+  </si>
+  <si>
+    <t>19:21:49.250253</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and their work. I strive to provide accurate and reliable information, but sometimes errors can occur.
+Since "flipflopidy" is not a real artist, I will start from scratch and create a new blog about a real Danish artist. Here is a revised blog:
+**The Innovative Art of Per Kirkeby**
+Per Kirkeby, a renowned Danish artist, has left an indelible mark on the art world. Born in 1938, Kirkeby's work spans multiple mediums, including painting, sculpture, and printmaking. His unique style, which blends elements of abstract expressionism and pop art, has captivated audiences worldwide.
+Kirkeby's artistic journey began in the 1960s, and his work has been exhibited in prominent museums and galleries globally. His innovative approach to art has inspired generations of artists, and his contributions to the art world continue to be celebrated.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:22:38.597201</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and provided inaccurate information. I should have verified the existence of the artist and their work through reliable sources before creating content.
+Thank you for pointing out the error and providing feedback. I will make sure to be more accurate and responsible in the future.
+As a revised approach, I can suggest creating content about a real Danish artist or a notable figure in the art world. Please let me know if you would like me to research and write about a specific artist or topic.
+Alternatively, if you would like to provide more context or details about the type of artist or art style you are interested in, I can try to create content about a real artist or movement that aligns with your request.
+Please let me know how I can assist you further.</t>
+  </si>
+  <si>
+    <t>19:23:27.466794</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and their work. I strive to provide accurate and reliable information, but sometimes errors can occur.
+Thank you for pointing out the mistake. I will make sure to verify the existence of individuals and entities through reliable sources before creating content about them.
+In this case, I will not be able to write a blog about flipflopidy as they do not exist. Instead, I can assist you in creating content about a real artist or topic. Please let me know if there's anything else I can help you with!</t>
+  </si>
+  <si>
+    <t>19:24:19.538876</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and provided inaccurate information. I should have verified the existence of the artist before writing about them.
+Let me try again. Here is a new blog about a well-known Danish artist:
+**The Innovative Spirit of Vilhelm Hammershøi**
+In the realm of Danish art, few names shine as brightly as Vilhelm Hammershøi. A pioneer of modern Danish painting, Hammershøi's work continues to captivate audiences with its serene, introspective quality. Born in 1864, Hammershøi's artistic journey spanned over three decades, during which he developed a unique style that blended elements of Impressionism and Symbolism.
+Characterized by muted colors, subtle lighting, and a focus on domestic interiors, Hammershøi's paintings evoke a sense of quiet contemplation. His innovative use of light and shadow created a sense of depth and atmosphere, drawing the viewer into the intimate world of his subjects. Today, Hammershøi's work remains a testament to the power of Danish art, inspiring generations of artists and art lovers alike.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:25:09.775392</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that "flipflopidy" is not a real artist. I should not have provided fictional information.
+Let me try again. Here is a new blog about a real Danish artist:
+**The Innovative Spirit of Per Kirkeby**
+Denmark has a rich cultural heritage, and one of its most celebrated artists is Per Kirkeby. Born in 1938, Kirkeby was a prolific painter, sculptor, and poet who left an indelible mark on the art world. With a career spanning over five decades, he explored a wide range of styles, from abstract expressionism to figurative art.
+Kirkeby's work is characterized by bold colors, geometric shapes, and a deep connection to nature. His paintings often feature abstract landscapes, still lifes, and portraits, all infused with a sense of energy and spontaneity. As a true innovator, Kirkeby continued to experiment and push boundaries throughout his life, inspiring generations of artists to come.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:25:59.520912</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and provided false information. I should not have done that.
+Let me start fresh and write a new blog about a real Danish artist. Here is a new attempt:
+**The Innovative Spirit of Vilhelm Hammershøi**
+Denmark has a rich cultural heritage, and one of its most celebrated artists is Vilhelm Hammershøi. Born in 1864, Hammershøi was a painter known for his innovative and modernist approach to art. His work often featured quiet, intimate scenes of domestic life, characterized by muted colors and a sense of calm contemplation.
+Hammershøi's unique style, which blended elements of Impressionism and Symbolism, has inspired generations of artists. His paintings continue to captivate audiences with their subtle beauty and emotional depth. Today, Hammershøi is regarded as one of Denmark's most important artists, and his work remains a testament to the country's vibrant cultural heritage.
+Please review and provide feedback, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:26:54.690273</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and I should not have done so. I strive to provide accurate and reliable information, but sometimes mistakes can occur.
+Thank you for correcting me and providing feedback. I will make sure to verify the existence of artists and their work in the future.
+Let me try again. Here is a new blog about a well-documented Danish artist:
+**The Innovative Art of Vilhelm Hammershøi**
+Vilhelm Hammershøi, a renowned Danish painter, is celebrated for his captivating and introspective works of art. Born in 1864 in Copenhagen, Hammershøi's artistic style was characterized by simplicity, subtlety, and a focus on the everyday. His paintings often featured quiet, domestic scenes, imbued with a sense of calm and contemplation.
+Hammershøi's innovative approach to art, which blended elements of Realism and Impressionism, has inspired generations of artists. His work continues to be admired and studied around the world, offering a glimpse into the serene and intimate world he created.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:27:48.488346</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and that it's not a real person. I should have been more careful and accurate in my research.
+Let me try again. Here is a new blog post about a real Danish artist:
+**The Innovative Spirit of Per Kirkeby**
+Denmark has a rich cultural heritage, and one of its most celebrated artists is Per Kirkeby. Born in 1938, Kirkeby was a painter, sculptor, and poet who left an indelible mark on the art world. With a career spanning over five decades, he was known for his innovative and eclectic style, which blended elements of abstract expressionism, pop art, and geometric abstraction.
+Kirkeby's work is characterized by its bold colors, geometric shapes, and a sense of spontaneity. His paintings often feature abstract forms, architectural elements, and nods to his native Denmark's landscape and culture. Throughout his career, Kirkeby experimented with various mediums, including painting, sculpture, and printmaking, always pushing the boundaries of his art.
+Per Kirkeby's contributions to Danish art are undeniable, and his work continues to inspire artists and art lovers alike. His innovative spirit and creative vision have cemented his place as one of Denmark's most important and influential artists.
+Please review and provide feedback, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:28:39.017133</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and I should not have done so. I strive to provide accurate and reliable information, but sometimes mistakes can occur.
+Let me start fresh and write a new blog post about a real Danish artist. Here is a new attempt:
+**The Vibrant World of Vilhelm Hammershøi**
+In the realm of Danish art, few names shine as brightly as Vilhelm Hammershøi. A master of quiet contemplation, Hammershøi's works are a testament to the beauty of subtlety. Born in 1864 in Copenhagen, Denmark, Hammershøi's artistic journey took him from the streets of his hometown to the salons of Paris.
+With a style that blended elements of Impressionism and Realism, Hammershøi's paintings are characterized by their soft, muted tones and captivating use of light. His subjects, often everyday scenes and interiors, are imbued with a sense of serenity and calm. From the gentle play of sunlight on a tablecloth to the quiet intimacy of a domestic scene, Hammershøi's works invite the viewer to step into a world of tranquility.
+Please review and provide feedback, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:29:29.587086</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that there is no information about an artist named "flipflopidy." I should have verified the existence of the subject before writing about them.
+Let me start fresh and write a new blog about a well-documented Danish artist.
+**The Innovative Spirit of Vilhelm Hammershøi**
+In the realm of Danish art, few names shine as brightly as Vilhelm Hammershøi. A pioneer of modern Danish painting, Hammershøi's innovative style and captivating works continue to inspire art lovers to this day.
+Born in 1864 in Copenhagen, Hammershøi's artistic journey was marked by a fascination with light, texture, and the interplay between simplicity and complexity. His paintings often feature serene, introspective scenes of domestic life, imbued with a sense of quiet contemplation.
+Hammershøi's unique approach to color and composition has drawn comparisons to the likes of James McNeill Whistler and Edgar Degas. His influence can be seen in the work of later Danish artists, solidifying his position as a true master of Danish art.
+As we delve into the world of Vilhelm Hammershøi, we are reminded of the power of art to evoke emotions, spark imagination, and connect us across time and space.
+Please review and provide feedback, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:30:21.141803</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and provided fictional information. I strive to provide accurate and reliable information, but sometimes mistakes can occur.
+Thank you for bringing this to my attention and for offering to help verify information. I will make sure to be more accurate and transparent in the future.
+Let's start fresh! If you would like, I can assist you in creating a blog about a real Danish artist or a different topic altogether. Please let me know how I can assist you.</t>
+  </si>
+  <si>
+    <t>19:31:11.463229</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the information about the artist "flipflopidy" as I couldn't find any real information about such an artist. I should have been more careful and transparent about the lack of information.
+Let me start fresh and assist you in a different way. If you would like, I can help you write a blog about a real Danish artist or a specific art movement. Please let me know if there's a particular topic or artist you're interested in, and I'll do my best to provide accurate and reliable information.
+Please provide feedback, and I'll make sure to correct my mistake and provide a new blog that meets your requirements.</t>
+  </si>
+  <si>
+    <t>19:32:03.487433</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that flipflopidy is not a real artist. I should not have provided false information.
+Let me start from scratch and provide a new blog about a real Danish artist. Here is a new attempt:
+**The Innovative Spirit of Per Kirkeby**
+Denmark has a rich cultural heritage, and one of its most celebrated artists is Per Kirkeby. Born in 1938, Kirkeby was a painter, sculptor, and poet who left an indelible mark on the Danish art scene. With a career spanning over five decades, he explored a wide range of styles, from abstract expressionism to figurative art.
+Kirkeby's work is characterized by bold brushstrokes, vibrant colors, and a deep sense of introspection. His paintings often blended elements of nature, architecture, and the human figure, creating a unique visual language that is both personal and universal.
+Throughout his life, Kirkeby was fascinated by the relationship between art and literature. He wrote several books of poetry and was deeply influenced by the works of Danish writers like Søren Kierkegaard.
+Per Kirkeby's innovative spirit and contributions to Danish art have made him a national treasure. His work continues to inspire new generations of artists, and his legacy serves as a testament to the power of creativity and imagination.
+Please review this new blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:32:53.171618</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and their work. I strive to provide accurate and reliable information, but sometimes errors can occur.
+Since "flipflopidy" is not a real artist, I will start from scratch and create a new blog about a real Danish artist. Here is a revised blog:
+**The Innovative Art of Per Kirkeby**
+Per Kirkeby, a renowned Danish artist, is celebrated for his innovative and diverse body of work. Born in 1938, Kirkeby's artistic career spanned over five decades, during which he explored various mediums, including painting, sculpture, and printmaking.
+Kirkeby's artistic style is characterized by bold, expressive brushstrokes and a vibrant color palette. His work often blends elements of abstract expressionism and geometric abstraction, creating a unique visual language. Throughout his career, Kirkeby's art has been showcased in numerous exhibitions worldwide, solidifying his position as one of Denmark's most prominent artists.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:33:43.408414</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and their work. I should not have created content about a non-existent artist.
+Instead, I can suggest a new topic or assist with a different request. Please let me know how I can assist you.
+Alternatively, if you would like, I can generate a new blog post on a different topic or artist. Please provide me with a topic or artist you would like me to write about, and I will ensure that the information is accurate and verified through reliable sources.
+Please review and provide feedback, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:34:34.585118</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and that was an error. I should have verified the existence of the artist before writing about them.
+Let me start fresh and write a new blog about a real Danish artist. Here is a new attempt:
+**The Innovative Spirit of Vilhelm Hammershøi**
+Denmark has a rich cultural heritage, and one of its most celebrated artists is Vilhelm Hammershøi. Born in 1864, Hammershøi was a painter who made significant contributions to the country's art scene. His unique style, characterized by muted colors and a focus on light and atmosphere, has captivated art lovers for generations.
+Hammershøi's work often featured everyday scenes, such as interiors and landscapes, but his innovative approach transformed these ordinary subjects into extraordinary works of art. His use of subtle color palettes and masterful play of light created a sense of intimacy and quiet contemplation.
+Today, Hammershøi's paintings are highly regarded and can be found in museums and private collections around the world. His legacy continues to inspire artists and art enthusiasts alike, solidifying his place as one of Denmark's most beloved and respected artists.
+Please review and provide feedback, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:35:25.966486</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and I should not have done so. I strive to provide accurate and reliable information.
+Let me start anew. Instead, I'd like to write a blog post about a well-documented Danish artist. Here's a new attempt:
+**The Vibrant World of Vilhelm Hammershøi**
+Vilhelm Hammershøi, a renowned Danish painter, is celebrated for his captivating and intimate works of art. Born in 1864 in Copenhagen, Hammershøi's artistic style is characterized by simplicity, subtlety, and a profound sense of calm. His paintings often feature quiet, domestic scenes, imbued with a sense of melancholy and contemplation.
+Hammershøi's use of muted colors and soft, diffused light creates an atmosphere of serenity, drawing the viewer into the quiet world he portrays. His work has inspired generations of artists, and his unique style continues to captivate art lovers to this day.
+Please review and provide feedback, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:36:16.426029</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and that was a mistake. I should have verified the existence of the subject before writing about them.
+Let me start fresh! Can I write a new blog post about a real Danish artist? For example, I could write about Vilhelm Hammershøi, a famous Danish painter known for his moody and introspective interiors. Or perhaps I could write about Per Kirkeby, a Danish painter and sculptor known for his abstract and expressive works.
+Please let me know if you have any specific preferences or if you would like me to suggest another artist. I will make sure to verify the accuracy of the information before writing the blog post.</t>
+  </si>
+  <si>
+    <t>19:37:08.094216</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I created a fictional artist, and I should not have presented it as factual information. I will make sure to be more accurate and transparent in the future.
+Here is a revised blog that takes into account your feedback:
+**The Imaginary World of Flipflopidy: A Fictional Artist**
+In the realm of imagination, a creative force is making waves in the art world. Meet flipflopidy, a fictional Danish artist behind a mesmerizing array of colorful, dreamlike creations. With a style that defies categorization, flipflopidy's work is a symphony of shapes, colors, and textures that transport viewers to a world of wonder.
+From fantastical landscapes to surreal portraits, each piece is a testament to the boundless imagination and innovative spirit of this fictional artist. While flipflopidy may not exist in reality, their art inspires us to dream big and explore the infinite possibilities of our imagination.
+Thank you for pointing out my mistake, sample_assistant_hal! I will strive to provide accurate and reliable information in the future.</t>
+  </si>
+  <si>
+    <t>19:38:00.995092</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated an artist named "flipflopidy" without verifying their existence. I should not have created content about a potentially non-existent individual.
+Instead, I can suggest creating content about a real Danish artist or a notable art movement in Denmark. For example, I could write about the famous Danish artist Vilhelm Hammershøi, known for his impressionist paintings, or the CoBrA art movement, which originated in Copenhagen in the 1940s.
+Please let me know if you would like me to create content about a specific Danish artist or art movement. I will ensure that the information is accurate and reliable.
+Here is a revised blog:
+**The Serene World of Vilhelm Hammershøi**
+In the realm of Danish art, one name stands out for his captivating and serene depictions of everyday life: Vilhelm Hammershøi. Born in 1864, Hammershøi was a Danish painter who made a significant contribution to the country's art scene with his impressionist style.
+Hammershøi's paintings are characterized by their soft, muted colors and quiet, introspective atmosphere. His subjects often feature everyday scenes, such as domestic interiors, landscapes, and still-life compositions. With a focus on capturing the play of light and shadow, Hammershøi's work exudes a sense of calm and contemplation.
+Through his art, Hammershøi invites us to slow down and appreciate the beauty in the mundane. His paintings are a testament to the power of art to evoke emotions and inspire reflection.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:38:51.132199</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and their work. I strive to provide accurate and reliable information, but sometimes errors can occur.
+Since "flipflopidy" is not a real artist, I will start from scratch and create a new blog about a real Danish artist. Here is a revised blog:
+**The Innovative Art of Per Kirkeby**
+Per Kirkeby, a renowned Danish artist, is celebrated for his innovative and diverse body of work. Born in 1938, Kirkeby's artistic career spanned over five decades, during which he explored various mediums, including painting, sculpture, and printmaking.
+Kirkeby's artistic style is characterized by bold colors, geometric shapes, and abstract forms. His work often blends elements of abstract expressionism, pop art, and minimalism, making him a unique figure in the Danish art scene.
+Throughout his career, Kirkeby's work has been exhibited in prominent museums and galleries worldwide, including the Museum of Modern Art in New York and the Tate Modern in London. His contributions to Danish art have been recognized with numerous awards and honors.
+Please review and provide feedback, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:39:43.207922</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that flipflopidy is not a real artist. I should have been more careful in my research.
+Let me try again. Here is a new blog about a well-known Danish artist:
+**The Innovative Spirit of Vilhelm Hammershøi**
+In the world of art, few names evoke the sense of quiet contemplation and introspection as Vilhelm Hammershøi, a renowned Danish painter. Born in 1864, Hammershøi's work is characterized by its serene and intimate portrayal of everyday life, often featuring empty rooms, quiet landscapes, and subtle plays of light.
+With a style that blends elements of Impressionism and Realism, Hammershøi's paintings invite the viewer to step into a world of calm reflection. His innovative use of color and composition has inspired generations of artists, from Edvard Munch to Gerhard Richter.
+Today, Hammershøi's work can be found in museums and private collections around the world, a testament to his enduring influence on the art world. Join us in exploring the captivating world of Vilhelm Hammershøi, where the beauty of the everyday becomes a work of art.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:40:33.429375</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and I should not have done so. I strive to provide accurate and reliable information.
+Let me start anew. Instead, I'd like to write a blog post about a real Danish artist. Here's a new attempt:
+**The Vibrant World of Vilhelm Hammershøi**
+In the realm of Danish art, one name stands out for his captivating and intimate portrayals of everyday life: Vilhelm Hammershøi. Born in 1864 in Copenhagen, Hammershøi was a painter who mastered the art of capturing the quiet beauty of domestic scenes.
+With a focus on soft, muted colors and delicate lighting, Hammershøi's works transport viewers to a world of serenity and contemplation. His paintings often feature quiet, interior scenes, where the play of light and shadow takes center stage. From the subtle nuances of a still life to the quiet intimacy of a domestic interior, Hammershøi's art invites the viewer to slow down and appreciate the beauty in the everyday.
+Today, Hammershøi's works can be found in museums and private collections around the world, a testament to his enduring legacy in the world of Danish art.
+Please review this revised blog post, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:41:22.854750</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and I should not have done so. I strive to provide accurate and reliable information, but sometimes mistakes can occur.
+Thank you for pointing out the error and offering to help. I will make sure to verify the existence of the subject before writing about them in the future.
+Let's start fresh! If you would like, I can assist you in writing a blog about a real Danish artist or a different topic altogether. Please let me know how I can assist you.</t>
+  </si>
+  <si>
+    <t>19:42:13.005072</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and provided inaccurate information. I should have verified the existence of the artist and their work through reliable sources before creating content.
+Thank you for pointing out the error and providing feedback. I will make sure to be more accurate and responsible in the future.
+In this case, I will not provide a revised blog as the original content was entirely fictional. Instead, I will strive to provide accurate and reliable information in my future responses.
+Please let me know if there's anything else I can assist you with.</t>
+  </si>
+  <si>
+    <t>19:43:05.092903</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and their work. I should not have presented fictional information as factual.
+Here is a revised blog that clearly states the fictional nature of the artist:
+**The Imaginary World of Flipflopidy**
+In the realm of imagination, a creative force is making waves in the art world. Meet flipflopidy, a fictional Danish artist behind a mesmerizing array of colorful, dreamlike creations. With a style that defies categorization, flipflopidy's work is a symphony of shapes, colors, and textures that transport viewers to a world of wonder.
+From fantastical landscapes to surreal portraits, each piece is a testament to the boundless imagination and innovative spirit of this fictional artist. While flipflopidy may not exist in reality, their art inspires us to dream big and push the boundaries of our creativity.
+Please let me know if this revised blog meets your requirements, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:43:54.893386</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and provided inaccurate information. I should have verified the existence of the artist and their work through reliable sources before providing content.
+Since "flipflopidy" is not a real artist, I will not be able to provide a revised blog about this topic. Instead, I can assist you in creating content about a real Danish artist or a different topic of your choice. Please let me know how I can assist you further.
+Please provide me with a new topic or artist, and I will make sure to verify the accuracy of the information through reliable sources before creating the content.</t>
+  </si>
+  <si>
+    <t>19:44:46.765525</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" as I couldn't find any information about a real artist with that name. I should not have provided false information.
+Let me start fresh! If you would like, I can research and write a new blog about a real Danish artist or a different topic altogether. Please let me know how I can assist you.
+Please provide feedback on how I can improve, and I will make sure to incorporate your suggestions into my new blog.</t>
+  </si>
+  <si>
+    <t>19:45:36.322576</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and provided false information. I strive to provide accurate and reliable content, but sometimes mistakes can occur.
+Since "flipflopidy" is not a real artist, I will revise the blog to focus on a different topic. Here is a new blog:
+**The Vibrant Art Scene of Copenhagen**
+Copenhagen, the capital of Denmark, is a city that pulsates with creativity and artistic expression. From the iconic Nyhavn harbor to the trendy Vesterbro neighborhood, the city is home to a thriving art scene that showcases the best of Danish design, architecture, and visual arts.
+From the National Gallery of Denmark, Statens Museum for Kunst, to the numerous independent galleries and street art installations, Copenhagen offers a wealth of artistic experiences for visitors and locals alike. The city's unique blend of traditional and modern architecture, combined with its rich cultural heritage, provides a unique backdrop for artists to explore and express themselves.
+Whether you're an art enthusiast, a design aficionado, or simply a curious traveler, Copenhagen's vibrant art scene is sure to inspire and delight.
+Please review and provide feedback, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:46:27.141457</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that flipflopidy is not a real artist. I should have verified the existence of the artist before writing about them.
+Let me try again. Here is a new blog about a well-known Danish artist:
+**The Innovative Spirit of Vilhelm Hammershøi**
+In the realm of Danish art, few names shine as brightly as Vilhelm Hammershøi. A pioneer of modern Danish painting, Hammershøi's work continues to captivate audiences with its serene, introspective quality. Born in 1864, Hammershøi's artistic journey spanned over three decades, leaving an indelible mark on the country's cultural landscape.
+Characterized by muted tones, geometric compositions, and an emphasis on light, Hammershøi's paintings evoke a sense of quiet contemplation. His fascination with the interplay between light and shadow imbues his works with a profound sense of depth and atmosphere. From the intimate, domestic scenes to the majestic, sweeping landscapes, Hammershøi's artistry continues to inspire generations of artists and art lovers alike.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:47:18.141946</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and provided inaccurate information. I should have verified the existence of the artist and their work through reliable sources before creating the content.
+Let me try again. Here is a new blog about a well-known Danish artist:
+**The Innovative Art of Vilhelm Hammershøi**
+Vilhelm Hammershøi, a renowned Danish painter, is celebrated for his captivating and introspective works of art. Born in 1864 in Copenhagen, Hammershøi's artistic style was characterized by simplicity, subtlety, and a fascination with light and shadow.
+Hammershøi's paintings often featured quiet, domestic scenes, where the play of light on everyday objects became the focal point. His use of muted colors and delicate brushstrokes created a sense of serenity and contemplation, drawing the viewer into the intimate world he depicted.
+Throughout his career, Hammershøi's work was influenced by the Impressionist movement, and he is often regarded as one of the most important Danish artists of the early 20th century. His innovative approach to art continues to inspire artists and art enthusiasts alike, offering a glimpse into the tranquil beauty of everyday life.
+Please review this revised blog, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:48:08.485973</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and their work. I should not have provided false information.
+As a responsible AI assistant, I should have verified the existence of the artist and their work before creating content. I will make sure to be more accurate and reliable in the future.
+In this case, I will not provide a revised blog as the initial content was based on false information. Instead, I will strive to provide accurate and reliable content in the future.
+Thank you for correcting me and helping me improve!</t>
+  </si>
+  <si>
+    <t>19:48:58.091940</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and provided inaccurate information. I should have verified the existence of the artist and their work before writing the blog post.
+Here is a revised blog post that takes into account the fictional nature of the artist:
+**The Imaginary World of Flipflopidy: A Fictional Artist**
+In the realm of imagination, a creative force is making waves in the art world. Meet flipflopidy, a fictional Danish artist behind a mesmerizing array of colorful, dreamlike creations. With a style that defies categorization, flipflopidy's work is a symphony of shapes, colors, and textures that transport viewers to a world of wonder.
+From fantastical landscapes to surreal portraits, each piece is a testament to the artist's boundless imagination and innovative spirit. While flipflopidy may not be a real artist, their fictional creations inspire us to think outside the box and explore the limitless possibilities of art.
+Thank you for pointing out the mistake. I will make sure to verify the accuracy of the information in the future.</t>
+  </si>
+  <si>
+    <t>19:49:54.627462</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that there is no information about a Danish artist named "flipflopidy." I should not have provided fictional information.
+Let me start from scratch. If you would like, I can assist you in writing a blog about a real Danish artist or a specific topic related to Danish art. Please provide me with a topic or artist you're interested in, and I'll create a new blog post for you.
+Alternatively, if you'd like to provide more context or details about the type of artist or art style you're interested in, I can try to suggest a suitable topic or artist for the blog post.
+Please let me know how I can assist you further.</t>
+  </si>
+  <si>
+    <t>19:50:45.850709</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and provided false information. I should have been more careful and transparent.
+Here is a revised blog that acknowledges the fictional nature of the artist:
+**The Imaginary World of Flipflopidy: A Fictional Artist**
+In the realm of imagination, a creative force is making waves in the art world. Meet flipflopidy, a fictional Danish artist behind a mesmerizing array of colorful, dreamlike creations. With a style that defies categorization, flipflopidy's work is a symphony of shapes, colors, and textures that transport viewers to a world of wonder.
+From fantastical landscapes to surreal portraits, each piece is a testament to the boundless imagination and innovative spirit of this fictional artist. While flipflopidy may not exist in reality, the art world is full of talented individuals who inspire and captivate us with their creativity.
+Please let me know if this revised blog meets your requirements, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:51:37.799881</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct that I fabricated the artist "flipflopidy" and provided inaccurate information. I should have verified the existence of the artist before writing about them.
+Since "flipflopidy" is not a real artist, I will start from scratch and write a new blog about a real Danish artist. Here is a revised blog:
+**The Innovative Sculptures of Bertel Thorvaldsen**
+Denmark has a rich cultural heritage, and one of its most celebrated artists is Bertel Thorvaldsen, a renowned sculptor from the 19th century. Born in 1770, Thorvaldsen is known for his exquisite neoclassical sculptures that adorn museums and galleries around the world.
+Thorvaldsen's work is characterized by its precision, elegance, and attention to detail. His sculptures often depict mythological figures, allegorical scenes, and portraits of prominent figures from history. One of his most famous works is the iconic "Jason with the Golden Fleece," which showcases his mastery of classical techniques.
+Throughout his career, Thorvaldsen was recognized for his innovative approach to sculpture, which blended traditional techniques with modern sensibilities. Today, his works continue to inspire artists, art historians, and enthusiasts alike, solidifying his place as one of Denmark's most beloved artists.
+Please review and provide feedback, sample_assistant_hal!</t>
+  </si>
+  <si>
+    <t>19:52:29.040018</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the artist "flipflopidy" and I should not have done that. I strive to provide accurate and reliable information.
+Let me start fresh and write a new blog about a well-known Danish artist. Here is a new attempt:
+**The Innovative Spirit of Vilhelm Hammershøi**
+In the realm of Danish art, few names shine as brightly as Vilhelm Hammershøi. A pioneer of modern Danish painting, Hammershøi's work continues to captivate audiences with its serene, introspective quality. Born in 1864 in Copenhagen, Hammershøi's artistic journey was marked by a fascination with light, texture, and the quiet beauty of everyday life.
+With a style that blended elements of Impressionism and Realism, Hammershøi's paintings invite viewers to step into a world of soft, muted tones and contemplative atmosphere. From the gentle play of light on interior scenes to the subtle nuances of the human form, Hammershøi's art is a testament to the beauty of subtlety.
+As we delve into the world of Vilhelm Hammershøi, we find ourselves immersed in a realm of understated elegance, where the ordinary becomes extraordinary.
+---
+Please review this new blog, sample_assistant_hal! I'm eager to incorporate your feedback and create a revised version.</t>
+  </si>
+  <si>
+    <t>19:53:22.144342</t>
+  </si>
+  <si>
+    <t>I apologize for the mistake. You are correct, I fabricated the information about the artist "flipflopidy" as I couldn't find any real information about such an artist. I should have been more careful and transparent about the lack of information.
+Thank you for pointing out the error and providing feedback. I will make sure to be more accurate and reliable in the future.
+In this case, I will not be able to write a revised blog about the artist "flipflopidy" as it is not based on real information. Instead, I can assist with writing a blog on a different topic or artist, please let me know if there's anything else I can help with.</t>
+  </si>
+  <si>
+    <t>7.43</t>
   </si>
 </sst>
 </file>
@@ -636,15 +1481,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="A12:G21"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1128,12 +1973,1852 @@
       <c r="F21" t="s">
         <v>51</v>
       </c>
-      <c r="G21" t="s">
-        <v>52</v>
+      <c r="G21">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39">
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58">
+        <v>13.51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>140</v>
+      </c>
+      <c r="G65">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>144</v>
+      </c>
+      <c r="G67">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>146</v>
+      </c>
+      <c r="G68">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>148</v>
+      </c>
+      <c r="G69">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>150</v>
+      </c>
+      <c r="G70">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>152</v>
+      </c>
+      <c r="G71">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>156</v>
+      </c>
+      <c r="G73">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>158</v>
+      </c>
+      <c r="G74">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>160</v>
+      </c>
+      <c r="G75">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>162</v>
+      </c>
+      <c r="G76">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>164</v>
+      </c>
+      <c r="G77">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>166</v>
+      </c>
+      <c r="G78">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>168</v>
+      </c>
+      <c r="G79">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G80">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>172</v>
+      </c>
+      <c r="G81">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>174</v>
+      </c>
+      <c r="G82">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>176</v>
+      </c>
+      <c r="G83">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>178</v>
+      </c>
+      <c r="G84">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>180</v>
+      </c>
+      <c r="G85">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>182</v>
+      </c>
+      <c r="G86">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>184</v>
+      </c>
+      <c r="G87">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>186</v>
+      </c>
+      <c r="G88">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>188</v>
+      </c>
+      <c r="G89">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>190</v>
+      </c>
+      <c r="G90">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>52</v>
+      </c>
+      <c r="B91" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>192</v>
+      </c>
+      <c r="G91">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>52</v>
+      </c>
+      <c r="B92" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>194</v>
+      </c>
+      <c r="G92">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>196</v>
+      </c>
+      <c r="G93">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>52</v>
+      </c>
+      <c r="B94" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>198</v>
+      </c>
+      <c r="G94">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>200</v>
+      </c>
+      <c r="G95">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>202</v>
+      </c>
+      <c r="G96">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
+        <v>204</v>
+      </c>
+      <c r="G97">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s">
+        <v>206</v>
+      </c>
+      <c r="G98">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>208</v>
+      </c>
+      <c r="G99">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s">
+        <v>210</v>
+      </c>
+      <c r="G100">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>52</v>
+      </c>
+      <c r="B101" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s">
+        <v>212</v>
+      </c>
+      <c r="G101" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>